--- a/productos.xlsx
+++ b/productos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
   <si>
     <t>titulo</t>
   </si>
@@ -182,6 +182,62 @@
 </t>
   </si>
   <si>
+    <t>Polera Beatle Pack De 2 Unidades Algodón Niño</t>
+  </si>
+  <si>
+    <t>882281914</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882281914_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882281914_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882281914_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882281914_4?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Beatles
+Género: Niño
+Temporada: Otoño-Invierno
+Hecho en: China
+Cuidados de la prenda: OTRO_ORIGEN
+</t>
+  </si>
+  <si>
+    <t>Polerón Chiporro Polar Niño</t>
+  </si>
+  <si>
+    <t>$ 16.990</t>
+  </si>
+  <si>
+    <t>882403103</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882403103_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882403103_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882403103_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882403103_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882403103_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Polerones
+Género: Niño
+Composición: 100% Poliéster
+Temporada: Otoño-Invierno
+Hecho en: China
+Cuidados de la prenda: OTRO_ORIGEN
+</t>
+  </si>
+  <si>
+    <t>882384940</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882384940_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384940_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384940_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384940_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384940_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882384944</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882384944_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384944_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384944_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384944_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384944_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882384935</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882384935_01?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384935_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384935_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384935_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384935_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882384935_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
     <t>Polera Algodón Niña</t>
   </si>
   <si>
@@ -231,6 +287,61 @@
 Hecho en: China
 Cuidados de la prenda: OTRO_ORIGEN
 </t>
+  </si>
+  <si>
+    <t>882252776</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882252776_1?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252776_2?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252776_3?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252776_4?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252776_5?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882252779</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882252779_1?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252779_2?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252779_3?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252779_4?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882252779_5?wid=1004&amp;hei=1500&amp;crop=248,0,1004,1500&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>Polerón Polar Niña</t>
+  </si>
+  <si>
+    <t>882361967</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882361967_01?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361967_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361967_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361967_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361967_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361967_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material principal: Polar
+Tipo: Polerones
+Género: Niña
+Composición: 100% Poliéster
+Temporada: Otoño-Invierno
+Hecho en: China
+Cuidados de la prenda: OTRO_ORIGEN
+</t>
+  </si>
+  <si>
+    <t>882361957</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882361957_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361957_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361957_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361957_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361957_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882361956</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882361956_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361956_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361956_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361956_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361956_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882361965</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882361965_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361965_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361965_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361965_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361965_5?wid=800&amp;hei=800&amp;qlt=70</t>
+  </si>
+  <si>
+    <t>882361962</t>
+  </si>
+  <si>
+    <t>https://falabella.scene7.com/is/image/Falabella/882361962_1?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361962_2?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361962_3?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361962_4?wid=800&amp;hei=800&amp;qlt=70,https://falabella.scene7.com/is/image/Falabella/882361962_5?wid=800&amp;hei=800&amp;qlt=70</t>
   </si>
 </sst>
 </file>
@@ -676,7 +787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,6 +932,151 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -832,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,28 +1122,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -895,13 +1151,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -910,15 +1166,218 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
       </c>
     </row>
